--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5998038090716111</v>
+        <v>9.5998038089244098</v>
       </c>
       <c r="C2">
-        <v>12.360009120495782</v>
+        <v>12.360009120512105</v>
       </c>
       <c r="D2">
-        <v>16.770135172002867</v>
+        <v>16.770135171807858</v>
       </c>
       <c r="E2">
-        <v>10.232427370681471</v>
+        <v>10.232427370824315</v>
       </c>
       <c r="F2">
-        <v>10.120370803443871</v>
+        <v>10.120370802379759</v>
       </c>
       <c r="G2">
-        <v>11.460825686011189</v>
+        <v>11.460825685984096</v>
       </c>
       <c r="H2">
-        <v>14.908432544643526</v>
+        <v>14.90843254467015</v>
       </c>
       <c r="I2">
-        <v>15.660564068283524</v>
+        <v>15.660564067938907</v>
       </c>
       <c r="J2">
-        <v>13.84973540005476</v>
+        <v>13.849735400498279</v>
       </c>
       <c r="K2">
-        <v>12.698018531105497</v>
+        <v>12.698018531032464</v>
       </c>
       <c r="L2">
-        <v>18.633973902221459</v>
+        <v>18.633973902082648</v>
       </c>
       <c r="M2">
-        <v>8.8374330945211277</v>
+        <v>8.8374330944523223</v>
       </c>
       <c r="N2">
-        <v>15.352256510880816</v>
+        <v>15.352256510624903</v>
       </c>
       <c r="O2">
-        <v>11.244096314537352</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="P2">
-        <v>19.691410334455938</v>
+        <v>19.691410334482654</v>
       </c>
       <c r="Q2">
-        <v>14.709216795954358</v>
+        <v>14.709216795944764</v>
       </c>
       <c r="R2">
-        <v>15.395064886800059</v>
+        <v>15.395064886753421</v>
       </c>
       <c r="S2">
-        <v>13.334496766479234</v>
+        <v>13.334496766118519</v>
       </c>
       <c r="T2">
-        <v>17.962768552845581</v>
+        <v>17.962768552983118</v>
       </c>
       <c r="U2">
-        <v>13.031494004523543</v>
+        <v>13.031494004502107</v>
       </c>
       <c r="V2">
-        <v>19.937701437979467</v>
+        <v>19.937701437931704</v>
       </c>
       <c r="W2">
-        <v>21.144661432232368</v>
+        <v>21.144661432003765</v>
       </c>
       <c r="X2">
-        <v>14.344307670936495</v>
+        <v>14.344307671327044</v>
       </c>
       <c r="Y2">
-        <v>10.364065484751912</v>
+        <v>10.364065484811317</v>
       </c>
       <c r="Z2">
-        <v>16.695179973305724</v>
+        <v>16.695179973369612</v>
       </c>
       <c r="AA2">
-        <v>11.460630163068693</v>
+        <v>11.460630162173594</v>
       </c>
       <c r="AB2">
-        <v>16.031813080696516</v>
+        <v>16.031813080694782</v>
       </c>
       <c r="AC2">
-        <v>16.194584229862578</v>
+        <v>16.194584229790891</v>
       </c>
       <c r="AD2">
-        <v>11.677661416460506</v>
+        <v>11.677661416421195</v>
       </c>
       <c r="AE2">
-        <v>11.374874912470624</v>
+        <v>11.37487491259553</v>
       </c>
       <c r="AF2">
-        <v>14.900576650174575</v>
+        <v>14.900576650389699</v>
       </c>
       <c r="AG2">
-        <v>9.8973238686155707</v>
+        <v>9.8973238679369917</v>
       </c>
       <c r="AH2">
-        <v>17.234947499595116</v>
+        <v>17.234947499348458</v>
       </c>
       <c r="AI2">
-        <v>15.019116572903236</v>
+        <v>15.019116572969718</v>
       </c>
       <c r="AJ2">
-        <v>21.288412975525322</v>
+        <v>21.288412975673705</v>
       </c>
       <c r="AK2">
-        <v>15.651834929070841</v>
+        <v>15.65183492900635</v>
       </c>
       <c r="AL2">
-        <v>7.9586561529614386</v>
+        <v>7.9586561529067374</v>
       </c>
       <c r="AM2">
-        <v>16.21473509378924</v>
+        <v>16.214735093701755</v>
       </c>
       <c r="AN2">
-        <v>9.4304240105165231</v>
+        <v>9.4304240103828096</v>
       </c>
       <c r="AO2">
-        <v>21.355015547690741</v>
+        <v>21.355015547571323</v>
       </c>
       <c r="AP2">
-        <v>16.630942529327022</v>
+        <v>16.630942529386985</v>
       </c>
       <c r="AQ2">
-        <v>14.5249844407872</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="AR2">
-        <v>10.175857614494511</v>
+        <v>10.175857614096874</v>
       </c>
       <c r="AS2">
-        <v>13.94012673367406</v>
+        <v>13.940126734605126</v>
       </c>
       <c r="AT2">
-        <v>7.5109890044072074</v>
+        <v>7.5109890043642551</v>
       </c>
       <c r="AU2">
-        <v>18.151219929711512</v>
+        <v>18.151219930002508</v>
       </c>
       <c r="AV2">
-        <v>17.182702390965737</v>
+        <v>17.182702390868954</v>
       </c>
       <c r="AW2">
-        <v>19.486860671217894</v>
+        <v>19.486860671190357</v>
       </c>
       <c r="AX2">
-        <v>8.1399434082446742</v>
+        <v>8.1399434080283815</v>
       </c>
       <c r="AY2">
-        <v>16.783696969016958</v>
+        <v>16.783696969105581</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.853016566802351</v>
+        <v>11.853016566960886</v>
       </c>
       <c r="C3">
-        <v>13.756681047643347</v>
+        <v>13.756681047658947</v>
       </c>
       <c r="D3">
-        <v>12.198735647439069</v>
+        <v>12.198735647533356</v>
       </c>
       <c r="E3">
-        <v>6.1642097244222791</v>
+        <v>6.1642097268614693</v>
       </c>
       <c r="F3">
-        <v>17.201053162438988</v>
+        <v>17.20105316240695</v>
       </c>
       <c r="G3">
-        <v>11.122250266240385</v>
+        <v>11.122250266186786</v>
       </c>
       <c r="H3">
-        <v>10.93431372860298</v>
+        <v>10.934313728689652</v>
       </c>
       <c r="I3">
-        <v>11.687734574471666</v>
+        <v>11.68773457423991</v>
       </c>
       <c r="J3">
-        <v>8.0137307275936323</v>
+        <v>8.0137307275739644</v>
       </c>
       <c r="K3">
-        <v>8.7317138408443</v>
+        <v>8.7317138408419943</v>
       </c>
       <c r="L3">
-        <v>14.34961684517577</v>
+        <v>14.349616845164459</v>
       </c>
       <c r="M3">
-        <v>10.020090441703672</v>
+        <v>10.019903179618533</v>
       </c>
       <c r="N3">
-        <v>13.525050225357264</v>
+        <v>13.525050225365455</v>
       </c>
       <c r="O3">
-        <v>14.104776056898219</v>
+        <v>14.104776056765296</v>
       </c>
       <c r="P3">
-        <v>16.197140635446274</v>
+        <v>16.197140635448296</v>
       </c>
       <c r="Q3">
-        <v>13.996361562621235</v>
+        <v>13.996361562650872</v>
       </c>
       <c r="R3">
-        <v>16.513892442174118</v>
+        <v>16.513892442244266</v>
       </c>
       <c r="S3">
-        <v>14.696804067955227</v>
+        <v>14.696804067905829</v>
       </c>
       <c r="T3">
-        <v>15.84472332952183</v>
+        <v>15.844723329491384</v>
       </c>
       <c r="U3">
-        <v>14.722658729754066</v>
+        <v>14.722658729987655</v>
       </c>
       <c r="V3">
-        <v>21.175963107624863</v>
+        <v>21.175963107282534</v>
       </c>
       <c r="W3">
-        <v>18.967361737598054</v>
+        <v>18.967361737464444</v>
       </c>
       <c r="X3">
-        <v>16.036737225463995</v>
+        <v>16.036737225510251</v>
       </c>
       <c r="Y3">
-        <v>11.335498643620685</v>
+        <v>11.335498643652006</v>
       </c>
       <c r="Z3">
-        <v>13.581116827671327</v>
+        <v>13.581116827647238</v>
       </c>
       <c r="AA3">
-        <v>13.429401745899444</v>
+        <v>13.429401745844544</v>
       </c>
       <c r="AB3">
-        <v>7.2025530397819661</v>
+        <v>7.2025530396306738</v>
       </c>
       <c r="AC3">
-        <v>10.420089473631492</v>
+        <v>10.420089473372821</v>
       </c>
       <c r="AD3">
-        <v>7.2088688732057653</v>
+        <v>7.2088688732575124</v>
       </c>
       <c r="AE3">
-        <v>13.964257968856018</v>
+        <v>13.964257968957732</v>
       </c>
       <c r="AF3">
-        <v>9.9422640102204625</v>
+        <v>9.9422640102015123</v>
       </c>
       <c r="AG3">
-        <v>16.29490169096054</v>
+        <v>16.294901690806455</v>
       </c>
       <c r="AH3">
-        <v>7.7386092293826358</v>
+        <v>7.7386092291543243</v>
       </c>
       <c r="AI3">
-        <v>4.3288302559219556</v>
+        <v>4.3288302562596153</v>
       </c>
       <c r="AJ3">
-        <v>10.829887615420052</v>
+        <v>10.829887615515052</v>
       </c>
       <c r="AK3">
-        <v>10.479282082876312</v>
+        <v>10.479282082795596</v>
       </c>
       <c r="AL3">
-        <v>14.241253235890404</v>
+        <v>14.241253235893756</v>
       </c>
       <c r="AM3">
-        <v>13.407086188450389</v>
+        <v>13.407086188382625</v>
       </c>
       <c r="AN3">
-        <v>16.438793464016857</v>
+        <v>16.438793463959918</v>
       </c>
       <c r="AO3">
-        <v>14.535529955742287</v>
+        <v>14.535529956158623</v>
       </c>
       <c r="AP3">
-        <v>13.546983207461587</v>
+        <v>13.546983207098307</v>
       </c>
       <c r="AQ3">
-        <v>18.605395468887309</v>
+        <v>18.60539546838897</v>
       </c>
       <c r="AR3">
-        <v>13.499975494196001</v>
+        <v>13.4999754946588</v>
       </c>
       <c r="AS3">
-        <v>17.421988513406813</v>
+        <v>17.421988513416245</v>
       </c>
       <c r="AT3">
-        <v>13.110516289630439</v>
+        <v>13.110516289637843</v>
       </c>
       <c r="AU3">
-        <v>22.376731915410392</v>
+        <v>22.376731915323024</v>
       </c>
       <c r="AV3">
-        <v>15.112167991159753</v>
+        <v>15.112167990967098</v>
       </c>
       <c r="AW3">
-        <v>10.549798792355823</v>
+        <v>10.549798792504099</v>
       </c>
       <c r="AX3">
-        <v>19.125154280545971</v>
+        <v>19.125154280571394</v>
       </c>
       <c r="AY3">
-        <v>11.455561434170891</v>
+        <v>11.455561434159341</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.5998038089244098</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.360009120512105</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16.770135171807858</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10.232427370824315</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.120370802379759</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.460825685984096</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14.90843254467015</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.660564067938907</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.849735400498279</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.698018531032464</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>18.633973902082648</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.8374330944523223</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.352256510624903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.244096314590454</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.691410334482654</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.709216795944764</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.395064886753421</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.334496766118519</v>
+        <v>14.764496172119358</v>
       </c>
       <c r="T2">
         <v>17.962768552983118</v>
@@ -573,7 +462,7 @@
         <v>13.031494004502107</v>
       </c>
       <c r="V2">
-        <v>19.937701437931704</v>
+        <v>19.701370748632854</v>
       </c>
       <c r="W2">
         <v>21.144661432003765</v>
@@ -588,55 +477,55 @@
         <v>16.695179973369612</v>
       </c>
       <c r="AA2">
-        <v>11.460630162173594</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>16.031813080694782</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>16.194584229790891</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>11.677661416421195</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.37487491259553</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.900576650389699</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.8973238679369917</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>17.234947499348458</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>15.019116572969718</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>21.288412975673705</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>15.65183492900635</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.9586561529067374</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>16.214735093701755</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.4304240103828096</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>21.355015547571323</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>16.630942529386985</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>14.524984440938098</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>10.175857614096874</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>11.853016566960886</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.756681047658947</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>12.198735647533356</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.1642097268614693</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.20105316240695</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.122250266186786</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.934313728689652</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.68773457423991</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.0137307275739644</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.7317138408419943</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.349616845164459</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.019903179618533</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.525050225365455</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.104776056765296</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.197140635448296</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.996361562650872</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16.513892442244266</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.696804067905829</v>
@@ -743,55 +629,55 @@
         <v>13.581116827647238</v>
       </c>
       <c r="AA3">
-        <v>13.429401745844544</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.2025530396306738</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.420089473372821</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.2088688732575124</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.964257968957732</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.9422640102015123</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>16.294901690806455</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.7386092291543243</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.3288302562596153</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.829887615515052</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>10.479282082795596</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.241253235893756</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.407086188382625</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>16.438793463959918</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.535529956158623</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>13.546983207098307</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>18.60539546838897</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.4999754946588</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5998038090716111</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="C2">
-        <v>13.287843654384339</v>
+        <v>15.395064886753421</v>
       </c>
       <c r="D2">
-        <v>16.770135172002867</v>
+        <v>9.4304240103828096</v>
       </c>
       <c r="E2">
-        <v>10.232427370681471</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="F2">
         <v>10.120370803443871</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.853016566802351</v>
+        <v>14.207823722985925</v>
       </c>
       <c r="C3">
-        <v>13.756681047643347</v>
+        <v>16.513892442244266</v>
       </c>
       <c r="D3">
-        <v>12.198735647439069</v>
+        <v>16.832541100581402</v>
       </c>
       <c r="E3">
-        <v>6.1642097244222791</v>
+        <v>15.615825002300481</v>
       </c>
       <c r="F3">
         <v>17.201053162438988</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.5998038090716111</v>
+        <v>15.847008530260693</v>
       </c>
       <c r="C2">
-        <v>13.287843654384339</v>
+        <v>11.244096314590454</v>
       </c>
       <c r="D2">
-        <v>16.770135172002867</v>
+        <v>16.214735093701755</v>
       </c>
       <c r="E2">
-        <v>10.232427370681471</v>
+        <v>9.4304240103828096</v>
       </c>
       <c r="F2">
         <v>10.120370803443871</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.853016566802351</v>
+        <v>13.525050225365455</v>
       </c>
       <c r="C3">
-        <v>13.756681047643347</v>
+        <v>14.207823722985925</v>
       </c>
       <c r="D3">
-        <v>12.198735647439069</v>
+        <v>13.407086188382625</v>
       </c>
       <c r="E3">
-        <v>5.0304026752036615</v>
+        <v>16.832541100581402</v>
       </c>
       <c r="F3">
         <v>17.201053162438988</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.5998038089244098</v>
+      </c>
+      <c r="C2">
+        <v>13.287843654545554</v>
+      </c>
+      <c r="D2">
+        <v>16.770135171807858</v>
+      </c>
+      <c r="E2">
+        <v>10.232427370824315</v>
+      </c>
+      <c r="F2">
+        <v>10.120370802379759</v>
+      </c>
+      <c r="G2">
+        <v>10.354293543260477</v>
+      </c>
+      <c r="H2">
+        <v>14.90843254467015</v>
+      </c>
+      <c r="I2">
+        <v>14.844576492213807</v>
+      </c>
+      <c r="J2">
+        <v>13.849735400498279</v>
+      </c>
+      <c r="K2">
+        <v>12.698018531032464</v>
+      </c>
+      <c r="L2">
+        <v>19.223020193008519</v>
+      </c>
+      <c r="M2">
+        <v>9.5293509376193501</v>
+      </c>
+      <c r="N2">
         <v>15.847008530260693</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.244096314590454</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>19.888327588340076</v>
+      </c>
+      <c r="Q2">
+        <v>14.709216795944764</v>
+      </c>
+      <c r="R2">
+        <v>15.395064886753421</v>
+      </c>
+      <c r="T2">
+        <v>17.614780630698363</v>
+      </c>
+      <c r="U2">
+        <v>13.031494004502107</v>
+      </c>
+      <c r="V2">
+        <v>18.651587288332006</v>
+      </c>
+      <c r="W2">
+        <v>21.144661432003765</v>
+      </c>
+      <c r="X2">
+        <v>14.344307671327044</v>
+      </c>
+      <c r="Y2">
+        <v>10.364065484811317</v>
+      </c>
+      <c r="Z2">
+        <v>16.695179973369612</v>
+      </c>
+      <c r="AA2">
+        <v>11.460630162173594</v>
+      </c>
+      <c r="AB2">
+        <v>16.031813080694782</v>
+      </c>
+      <c r="AC2">
+        <v>16.194584229790891</v>
+      </c>
+      <c r="AD2">
+        <v>11.677661416421195</v>
+      </c>
+      <c r="AE2">
+        <v>11.37487491259553</v>
+      </c>
+      <c r="AF2">
+        <v>14.900576650389699</v>
+      </c>
+      <c r="AG2">
+        <v>9.8973238679369917</v>
+      </c>
+      <c r="AH2">
+        <v>17.234947499348458</v>
+      </c>
+      <c r="AI2">
+        <v>15.019116572969718</v>
+      </c>
+      <c r="AJ2">
+        <v>21.288412975673705</v>
+      </c>
+      <c r="AK2">
+        <v>15.65183492900635</v>
+      </c>
+      <c r="AL2">
+        <v>7.9586561529067374</v>
+      </c>
+      <c r="AM2">
         <v>16.214735093701755</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>9.4304240103828096</v>
       </c>
-      <c r="F2">
-        <v>10.120370803443871</v>
-      </c>
-      <c r="G2">
-        <v>10.354293543349915</v>
-      </c>
-      <c r="H2">
-        <v>14.908432544643526</v>
-      </c>
-      <c r="I2">
-        <v>14.844576492612932</v>
-      </c>
-      <c r="J2">
-        <v>13.84973540005476</v>
-      </c>
-      <c r="K2">
-        <v>12.698018531105497</v>
-      </c>
-      <c r="L2">
-        <v>19.223020193057657</v>
-      </c>
-      <c r="M2">
-        <v>9.5293509375403254</v>
-      </c>
-      <c r="N2">
-        <v>15.847008530775501</v>
-      </c>
-      <c r="O2">
-        <v>11.244096314537352</v>
-      </c>
-      <c r="P2">
-        <v>19.88832758822446</v>
-      </c>
-      <c r="Q2">
-        <v>14.709216795954358</v>
-      </c>
-      <c r="R2">
-        <v>15.395064886800059</v>
-      </c>
-      <c r="T2">
-        <v>17.614780630641626</v>
-      </c>
-      <c r="U2">
-        <v>13.031494004523543</v>
-      </c>
-      <c r="V2">
-        <v>18.651587288331193</v>
-      </c>
-      <c r="W2">
-        <v>21.144661432232368</v>
-      </c>
-      <c r="X2">
-        <v>14.344307670936495</v>
-      </c>
-      <c r="Y2">
-        <v>10.364065484751912</v>
-      </c>
-      <c r="Z2">
-        <v>16.695179973305724</v>
-      </c>
-      <c r="AA2">
-        <v>11.460630163068693</v>
-      </c>
-      <c r="AB2">
-        <v>16.031813080696516</v>
-      </c>
-      <c r="AC2">
-        <v>16.194584229862578</v>
-      </c>
-      <c r="AD2">
-        <v>11.677661416460506</v>
-      </c>
-      <c r="AE2">
-        <v>11.374874912470624</v>
-      </c>
-      <c r="AF2">
-        <v>14.900576650174575</v>
-      </c>
-      <c r="AG2">
-        <v>9.8973238686155707</v>
-      </c>
-      <c r="AH2">
-        <v>17.234947499595116</v>
-      </c>
-      <c r="AI2">
-        <v>15.019116572903236</v>
-      </c>
-      <c r="AJ2">
-        <v>21.288412975525322</v>
-      </c>
-      <c r="AK2">
-        <v>15.651834929070841</v>
-      </c>
-      <c r="AL2">
-        <v>7.9586561529614386</v>
-      </c>
-      <c r="AM2">
-        <v>16.21473509378924</v>
-      </c>
-      <c r="AN2">
-        <v>9.4304240105165231</v>
-      </c>
       <c r="AO2">
-        <v>21.355015547690741</v>
+        <v>21.355015547571323</v>
       </c>
       <c r="AP2">
-        <v>16.001809964657721</v>
+        <v>16.001809964681122</v>
       </c>
       <c r="AQ2">
-        <v>14.5249844407872</v>
+        <v>14.524984440938098</v>
       </c>
       <c r="AR2">
-        <v>10.175857614494511</v>
+        <v>10.175857614096874</v>
       </c>
       <c r="AS2">
-        <v>13.94012673367406</v>
+        <v>13.940126734605126</v>
       </c>
       <c r="AT2">
-        <v>7.5109890044072074</v>
+        <v>7.5109890043642551</v>
       </c>
       <c r="AU2">
-        <v>20.67311047083879</v>
+        <v>20.673110461830532</v>
       </c>
       <c r="AV2">
-        <v>17.182702390965737</v>
+        <v>17.182702390868954</v>
       </c>
       <c r="AW2">
-        <v>19.486860671217894</v>
+        <v>19.486860671190357</v>
       </c>
       <c r="AX2">
-        <v>8.1399434082446742</v>
+        <v>8.1399434080283815</v>
       </c>
       <c r="AY2">
-        <v>16.783696969016958</v>
+        <v>16.783696969105581</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>11.853016566960886</v>
+      </c>
+      <c r="C3">
+        <v>13.756681047658947</v>
+      </c>
+      <c r="D3">
+        <v>12.198735647533356</v>
+      </c>
+      <c r="E3">
+        <v>5.0304026778404589</v>
+      </c>
+      <c r="F3">
+        <v>17.20105316240695</v>
+      </c>
+      <c r="G3">
+        <v>11.122250266186786</v>
+      </c>
+      <c r="H3">
+        <v>10.934313728689652</v>
+      </c>
+      <c r="I3">
+        <v>11.68773457423991</v>
+      </c>
+      <c r="J3">
+        <v>8.0137307275739644</v>
+      </c>
+      <c r="K3">
+        <v>9.3505795722510605</v>
+      </c>
+      <c r="L3">
+        <v>14.349616845164459</v>
+      </c>
+      <c r="M3">
+        <v>11.849828117680225</v>
+      </c>
+      <c r="N3">
         <v>13.525050225365455</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>14.207823722985925</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.197140635448296</v>
+      </c>
+      <c r="Q3">
+        <v>13.996361562650872</v>
+      </c>
+      <c r="R3">
+        <v>16.513892442244266</v>
+      </c>
+      <c r="S3">
+        <v>14.696804067905829</v>
+      </c>
+      <c r="T3">
+        <v>15.844723329491384</v>
+      </c>
+      <c r="U3">
+        <v>14.722658729987655</v>
+      </c>
+      <c r="V3">
+        <v>20.900271414226587</v>
+      </c>
+      <c r="W3">
+        <v>18.967361737464444</v>
+      </c>
+      <c r="X3">
+        <v>16.036737225510251</v>
+      </c>
+      <c r="Y3">
+        <v>11.335498643652006</v>
+      </c>
+      <c r="Z3">
+        <v>13.581116827647238</v>
+      </c>
+      <c r="AA3">
+        <v>13.429401745844544</v>
+      </c>
+      <c r="AB3">
+        <v>7.2025530396306738</v>
+      </c>
+      <c r="AC3">
+        <v>10.420089473372821</v>
+      </c>
+      <c r="AD3">
+        <v>7.2088688732575124</v>
+      </c>
+      <c r="AE3">
+        <v>13.964257968957732</v>
+      </c>
+      <c r="AF3">
+        <v>9.9422640102015123</v>
+      </c>
+      <c r="AG3">
+        <v>16.294901692910273</v>
+      </c>
+      <c r="AH3">
+        <v>7.7386092291543243</v>
+      </c>
+      <c r="AI3">
+        <v>8.1714840589559312</v>
+      </c>
+      <c r="AJ3">
+        <v>10.829887615515052</v>
+      </c>
+      <c r="AK3">
+        <v>10.479282082795596</v>
+      </c>
+      <c r="AL3">
+        <v>14.241253235893756</v>
+      </c>
+      <c r="AM3">
         <v>13.407086188382625</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>16.832541100581402</v>
       </c>
-      <c r="F3">
-        <v>17.201053162438988</v>
-      </c>
-      <c r="G3">
-        <v>11.122250266240385</v>
-      </c>
-      <c r="H3">
-        <v>10.93431372860298</v>
-      </c>
-      <c r="I3">
-        <v>11.687734574471666</v>
-      </c>
-      <c r="J3">
-        <v>8.0137307275936323</v>
-      </c>
-      <c r="K3">
-        <v>9.3505795722735616</v>
-      </c>
-      <c r="L3">
-        <v>14.34961684517577</v>
-      </c>
-      <c r="M3">
-        <v>11.850057559443234</v>
-      </c>
-      <c r="N3">
-        <v>13.525050225357264</v>
-      </c>
-      <c r="O3">
-        <v>14.207823724038033</v>
-      </c>
-      <c r="P3">
-        <v>16.197140635446274</v>
-      </c>
-      <c r="Q3">
-        <v>13.996361562621235</v>
-      </c>
-      <c r="R3">
-        <v>16.513892442174118</v>
-      </c>
-      <c r="S3">
-        <v>14.696804067955227</v>
-      </c>
-      <c r="T3">
-        <v>15.84472332952183</v>
-      </c>
-      <c r="U3">
-        <v>14.722658729754066</v>
-      </c>
-      <c r="V3">
-        <v>20.900271414828104</v>
-      </c>
-      <c r="W3">
-        <v>18.967361737598054</v>
-      </c>
-      <c r="X3">
-        <v>16.036737225463995</v>
-      </c>
-      <c r="Y3">
-        <v>11.335498643620685</v>
-      </c>
-      <c r="Z3">
-        <v>13.581116827671327</v>
-      </c>
-      <c r="AA3">
-        <v>13.429401745899444</v>
-      </c>
-      <c r="AB3">
-        <v>7.2025530397819661</v>
-      </c>
-      <c r="AC3">
-        <v>10.420089473631492</v>
-      </c>
-      <c r="AD3">
-        <v>7.2088688732057653</v>
-      </c>
-      <c r="AE3">
-        <v>13.964257968856018</v>
-      </c>
-      <c r="AF3">
-        <v>9.9422640102204625</v>
-      </c>
-      <c r="AG3">
-        <v>16.294901693064361</v>
-      </c>
-      <c r="AH3">
-        <v>7.7386092293826358</v>
-      </c>
-      <c r="AI3">
-        <v>8.1714840589113482</v>
-      </c>
-      <c r="AJ3">
-        <v>10.829887615420052</v>
-      </c>
-      <c r="AK3">
-        <v>10.479282082876312</v>
-      </c>
-      <c r="AL3">
-        <v>14.241253235890404</v>
-      </c>
-      <c r="AM3">
-        <v>13.407086188450389</v>
-      </c>
-      <c r="AN3">
-        <v>16.832541100696634</v>
-      </c>
       <c r="AO3">
-        <v>14.535529955742287</v>
+        <v>14.535529956158623</v>
       </c>
       <c r="AP3">
-        <v>13.546983207461587</v>
+        <v>13.546983207098307</v>
       </c>
       <c r="AQ3">
-        <v>15.615825002280435</v>
+        <v>15.615825002300481</v>
       </c>
       <c r="AR3">
-        <v>13.499975494196001</v>
+        <v>13.4999754946588</v>
       </c>
       <c r="AS3">
-        <v>17.421988513406813</v>
+        <v>17.421988513416245</v>
       </c>
       <c r="AT3">
-        <v>13.110516289630439</v>
+        <v>13.110516289637843</v>
       </c>
       <c r="AU3">
-        <v>21.342983003464497</v>
+        <v>21.342983003192682</v>
       </c>
       <c r="AV3">
-        <v>15.112167991159753</v>
+        <v>15.112167990967098</v>
       </c>
       <c r="AW3">
-        <v>10.549798792355823</v>
+        <v>10.549798792504099</v>
       </c>
       <c r="AX3">
-        <v>19.125154280545971</v>
+        <v>19.125154280571394</v>
       </c>
       <c r="AY3">
-        <v>11.455561434170891</v>
+        <v>11.455561434159341</v>
       </c>
     </row>
   </sheetData>
